--- a/data/trans_orig/P57B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{302555F8-2EA5-4F54-9668-E8B8CC56DF60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8647F449-6606-4528-BBDE-01138B6A4C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D2D11408-E46C-41B5-9082-47F00F151589}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66AA8FBD-C122-43AB-8618-A7DFE84FF74C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="335">
   <si>
     <t>Población según se ha sentido deprimido en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -92,28 +92,28 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -122,28 +122,28 @@
     <t>17,8%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -155,25 +155,25 @@
     <t>75,89%</t>
   </si>
   <si>
-    <t>85,14%</t>
+    <t>85,06%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
+    <t>75,29%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>80,37%</t>
   </si>
   <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>100%</t>
@@ -185,109 +185,106 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
   </si>
   <si>
     <t>2,65%</t>
   </si>
   <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
+    <t>3,23%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>26,37%</t>
   </si>
   <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
   </si>
   <si>
     <t>30,27%</t>
   </si>
   <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>70,05%</t>
   </si>
   <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
   </si>
   <si>
     <t>64,72%</t>
   </si>
   <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
   </si>
   <si>
     <t>67,3%</t>
   </si>
   <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -296,700 +293,724 @@
     <t>1,89%</t>
   </si>
   <si>
-    <t>0,91%</t>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>2,72%</t>
   </si>
   <si>
-    <t>3,71%</t>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
   </si>
   <si>
     <t>7,91%</t>
   </si>
   <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
   </si>
   <si>
     <t>14,66%</t>
   </si>
   <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>24,65%</t>
   </si>
   <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
   </si>
   <si>
     <t>20,03%</t>
   </si>
   <si>
-    <t>17,44%</t>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>59,57%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>43,55%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>68,01%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>60,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>48,79%</t>
   </si>
   <si>
     <t>22,83%</t>
   </si>
   <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>36,85%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>1,73%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>2,78%</t>
   </si>
   <si>
     <t>2,92%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>2,59%</t>
   </si>
   <si>
-    <t>2,95%</t>
+    <t>2,25%</t>
   </si>
   <si>
     <t>5,77%</t>
   </si>
   <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
     <t>8,3%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
   </si>
   <si>
     <t>7,11%</t>
   </si>
   <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
   </si>
   <si>
     <t>37,46%</t>
   </si>
   <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
+    <t>35,11%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
   </si>
   <si>
     <t>61,84%</t>
@@ -998,25 +1019,25 @@
     <t>59,86%</t>
   </si>
   <si>
-    <t>64,16%</t>
+    <t>64,28%</t>
   </si>
   <si>
     <t>51,32%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
   </si>
   <si>
     <t>56,27%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>53,24%</t>
+  </si>
+  <si>
+    <t>57,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1431,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEB186B8-8BFE-4309-9DCA-F777CAC3D9C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1A4706-4170-4DE7-B6EC-083692CDFE9B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1866,10 +1887,10 @@
         <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -1878,13 +1899,13 @@
         <v>19502</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -1893,13 +1914,13 @@
         <v>28505</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1914,13 +1935,13 @@
         <v>136310</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>230</v>
@@ -1929,13 +1950,13 @@
         <v>166988</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>329</v>
@@ -1944,13 +1965,13 @@
         <v>303298</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1965,13 +1986,13 @@
         <v>362156</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>445</v>
@@ -1980,13 +2001,13 @@
         <v>357034</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>710</v>
@@ -1995,13 +2016,13 @@
         <v>719190</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2057,7 +2078,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2069,13 +2090,13 @@
         <v>6047</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -2102,10 +2123,10 @@
         <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2141,13 @@
         <v>15745</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -2135,13 +2156,13 @@
         <v>29422</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
@@ -2150,13 +2171,13 @@
         <v>45166</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2192,13 @@
         <v>46948</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>138</v>
@@ -2186,13 +2207,13 @@
         <v>91677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
@@ -2201,13 +2222,13 @@
         <v>138626</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2243,13 @@
         <v>251427</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>324</v>
@@ -2237,13 +2258,13 @@
         <v>237992</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>592</v>
@@ -2652,10 +2673,10 @@
         <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>59</v>
+        <v>169</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2664,13 +2685,13 @@
         <v>20400</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>87</v>
+        <v>172</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>171</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2706,13 @@
         <v>94791</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>271</v>
@@ -2700,13 +2721,13 @@
         <v>124707</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>412</v>
@@ -2715,13 +2736,13 @@
         <v>219497</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2757,13 @@
         <v>87157</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>178</v>
@@ -2751,13 +2772,13 @@
         <v>88931</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>294</v>
@@ -2766,13 +2787,13 @@
         <v>176088</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2849,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2840,13 +2861,13 @@
         <v>9398</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -2855,13 +2876,13 @@
         <v>8020</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>164</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -2870,13 +2891,13 @@
         <v>17419</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2912,13 @@
         <v>17098</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -2906,13 +2927,13 @@
         <v>24256</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>80</v>
@@ -2921,13 +2942,13 @@
         <v>41354</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2963,13 @@
         <v>46241</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>109</v>
@@ -2957,13 +2978,13 @@
         <v>54166</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>184</v>
@@ -2972,13 +2993,13 @@
         <v>100407</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +3014,13 @@
         <v>203675</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>283</v>
@@ -3008,13 +3029,13 @@
         <v>189180</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>535</v>
@@ -3023,13 +3044,13 @@
         <v>392855</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,7 +3106,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3097,13 +3118,13 @@
         <v>12140</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>28</v>
@@ -3112,13 +3133,13 @@
         <v>17956</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -3130,10 +3151,10 @@
         <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,13 +3169,13 @@
         <v>34787</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -3163,13 +3184,13 @@
         <v>52329</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>105</v>
@@ -3178,13 +3199,13 @@
         <v>87115</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>127</v>
+        <v>243</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,13 +3220,13 @@
         <v>159146</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>350</v>
@@ -3214,13 +3235,13 @@
         <v>364131</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>510</v>
@@ -3229,13 +3250,13 @@
         <v>523277</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,13 +3271,13 @@
         <v>421681</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>511</v>
@@ -3265,13 +3286,13 @@
         <v>367615</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>902</v>
@@ -3280,13 +3301,13 @@
         <v>789296</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3342,7 +3363,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3354,13 +3375,13 @@
         <v>25760</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>262</v>
+        <v>94</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>64</v>
@@ -3369,13 +3390,13 @@
         <v>44495</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>92</v>
@@ -3384,13 +3405,13 @@
         <v>70255</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3405,13 +3426,13 @@
         <v>98200</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H40" s="7">
         <v>194</v>
@@ -3420,13 +3441,13 @@
         <v>144350</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M40" s="7">
         <v>297</v>
@@ -3435,13 +3456,13 @@
         <v>242550</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3456,13 +3477,13 @@
         <v>420817</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="H41" s="7">
         <v>587</v>
@@ -3471,13 +3492,13 @@
         <v>481366</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="M41" s="7">
         <v>1011</v>
@@ -3486,13 +3507,13 @@
         <v>902183</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,13 +3528,13 @@
         <v>314652</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="H42" s="7">
         <v>217</v>
@@ -3522,13 +3543,13 @@
         <v>198224</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>109</v>
+        <v>293</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="M42" s="7">
         <v>424</v>
@@ -3537,13 +3558,13 @@
         <v>512875</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3632,13 @@
         <v>75259</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H44" s="7">
         <v>174</v>
@@ -3626,13 +3647,13 @@
         <v>110739</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M44" s="7">
         <v>258</v>
@@ -3641,13 +3662,13 @@
         <v>185998</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>301</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3683,13 @@
         <v>194831</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>130</v>
+        <v>308</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>203</v>
+        <v>309</v>
       </c>
       <c r="H45" s="7">
         <v>476</v>
@@ -3677,13 +3698,13 @@
         <v>315068</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M45" s="7">
         <v>699</v>
@@ -3692,13 +3713,13 @@
         <v>509899</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,13 +3734,13 @@
         <v>1018225</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="H46" s="7">
         <v>1934</v>
@@ -3728,28 +3749,28 @@
         <v>1422328</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="M46" s="7">
         <v>3022</v>
       </c>
       <c r="N46" s="7">
-        <v>2440554</v>
+        <v>2440553</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,13 +3785,13 @@
         <v>2087559</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="H47" s="7">
         <v>2762</v>
@@ -3779,13 +3800,13 @@
         <v>1948495</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="M47" s="7">
         <v>4734</v>
@@ -3794,13 +3815,13 @@
         <v>4036054</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3863,7 @@
         <v>8713</v>
       </c>
       <c r="N48" s="7">
-        <v>7172505</v>
+        <v>7172504</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>46</v>
@@ -3856,7 +3877,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8647F449-6606-4528-BBDE-01138B6A4C82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBFB6E0B-68DF-4A40-8EDA-A6C9549093CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{66AA8FBD-C122-43AB-8618-A7DFE84FF74C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5FFFD15-56B1-4C99-AE3B-087F4C616967}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1452,7 +1452,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1A4706-4170-4DE7-B6EC-083692CDFE9B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53D3F0F-135C-4D48-814A-2A0E4063EB27}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBFB6E0B-68DF-4A40-8EDA-A6C9549093CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{731265C3-564A-4B2A-ADC5-E458CACDB833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{E5FFFD15-56B1-4C99-AE3B-087F4C616967}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26C8771E-F78A-495B-948D-88D0D822D7C3}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="328">
   <si>
     <t>Población según se ha sentido deprimido en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -92,28 +92,28 @@
     <t>1,16%</t>
   </si>
   <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>2,02%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
   </si>
   <si>
     <t>1,6%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -122,28 +122,28 @@
     <t>17,8%</t>
   </si>
   <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
   </si>
   <si>
     <t>18,26%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
   </si>
   <si>
     <t>18,04%</t>
   </si>
   <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -155,25 +155,25 @@
     <t>75,89%</t>
   </si>
   <si>
-    <t>85,06%</t>
+    <t>85,14%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>75,29%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
   </si>
   <si>
     <t>80,37%</t>
   </si>
   <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
   </si>
   <si>
     <t>100%</t>
@@ -185,832 +185,811 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>1,48%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>68,49%</t>
+  </si>
+  <si>
+    <t>67,3%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>70,33%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>28,54%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>82,46%</t>
+  </si>
+  <si>
+    <t>64,0%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>68,31%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
     <t>0,76%</t>
   </si>
   <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,82%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>64,42%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>74,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>54,58%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>38,48%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>68,1%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>41,49%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
   </si>
   <si>
     <t>3,0%</t>
   </si>
   <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>59,57%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>73,76%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>41,96%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>49,0%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>55,24%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>68,01%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>38,49%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>51,91%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>7,71%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>60,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
   </si>
   <si>
     <t>37,46%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
   </si>
   <si>
     <t>34,03%</t>
   </si>
   <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>61,84%</t>
@@ -1019,25 +998,25 @@
     <t>59,86%</t>
   </si>
   <si>
-    <t>64,28%</t>
+    <t>64,16%</t>
   </si>
   <si>
     <t>51,32%</t>
   </si>
   <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
   </si>
   <si>
     <t>56,27%</t>
   </si>
   <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1452,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53D3F0F-135C-4D48-814A-2A0E4063EB27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1DF04E-F298-4942-AF06-AB762F90151B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1887,10 +1866,10 @@
         <v>57</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H10" s="7">
         <v>28</v>
@@ -1899,13 +1878,13 @@
         <v>19502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -1914,13 +1893,13 @@
         <v>28505</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1935,13 +1914,13 @@
         <v>136310</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>230</v>
@@ -1950,13 +1929,13 @@
         <v>166988</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>329</v>
@@ -1965,13 +1944,13 @@
         <v>303298</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1986,13 +1965,13 @@
         <v>362156</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>445</v>
@@ -2001,13 +1980,13 @@
         <v>357034</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>710</v>
@@ -2016,13 +1995,13 @@
         <v>719190</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2078,7 +2057,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2090,13 +2069,13 @@
         <v>6047</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
@@ -2123,10 +2102,10 @@
         <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2141,13 +2120,13 @@
         <v>15745</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="H15" s="7">
         <v>50</v>
@@ -2156,13 +2135,13 @@
         <v>29422</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M15" s="7">
         <v>70</v>
@@ -2171,13 +2150,13 @@
         <v>45166</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2171,13 @@
         <v>46948</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H16" s="7">
         <v>138</v>
@@ -2207,13 +2186,13 @@
         <v>91677</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M16" s="7">
         <v>200</v>
@@ -2222,13 +2201,13 @@
         <v>138626</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2222,13 @@
         <v>251427</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>324</v>
@@ -2258,13 +2237,13 @@
         <v>237992</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>592</v>
@@ -2673,10 +2652,10 @@
         <v>168</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
@@ -2685,13 +2664,13 @@
         <v>20400</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2685,13 @@
         <v>94791</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H26" s="7">
         <v>271</v>
@@ -2721,13 +2700,13 @@
         <v>124707</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M26" s="7">
         <v>412</v>
@@ -2736,13 +2715,13 @@
         <v>219497</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,13 +2736,13 @@
         <v>87157</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H27" s="7">
         <v>178</v>
@@ -2772,13 +2751,13 @@
         <v>88931</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M27" s="7">
         <v>294</v>
@@ -2787,13 +2766,13 @@
         <v>176088</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,7 +2828,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -2861,13 +2840,13 @@
         <v>9398</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H29" s="7">
         <v>17</v>
@@ -2876,13 +2855,13 @@
         <v>8020</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K29" s="7" t="s">
-        <v>196</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
@@ -2891,13 +2870,13 @@
         <v>17419</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,13 +2891,13 @@
         <v>17098</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
@@ -2927,13 +2906,13 @@
         <v>24256</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>80</v>
@@ -2942,13 +2921,13 @@
         <v>41354</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2942,13 @@
         <v>46241</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>109</v>
@@ -2978,13 +2957,13 @@
         <v>54166</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>184</v>
@@ -2993,13 +2972,13 @@
         <v>100407</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3014,13 +2993,13 @@
         <v>203675</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>283</v>
@@ -3029,13 +3008,13 @@
         <v>189180</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>535</v>
@@ -3044,13 +3023,13 @@
         <v>392855</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,7 +3085,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3118,13 +3097,13 @@
         <v>12140</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>28</v>
@@ -3133,13 +3112,13 @@
         <v>17956</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
@@ -3151,10 +3130,10 @@
         <v>233</v>
       </c>
       <c r="P34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3169,13 +3148,13 @@
         <v>34787</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="G35" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
@@ -3184,13 +3163,13 @@
         <v>52329</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M35" s="7">
         <v>105</v>
@@ -3199,13 +3178,13 @@
         <v>87115</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3220,13 +3199,13 @@
         <v>159146</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="H36" s="7">
         <v>350</v>
@@ -3235,13 +3214,13 @@
         <v>364131</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="M36" s="7">
         <v>510</v>
@@ -3250,13 +3229,13 @@
         <v>523277</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,13 +3250,13 @@
         <v>421681</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="H37" s="7">
         <v>511</v>
@@ -3286,13 +3265,13 @@
         <v>367615</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="M37" s="7">
         <v>902</v>
@@ -3301,13 +3280,13 @@
         <v>789296</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3363,7 +3342,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3375,13 +3354,13 @@
         <v>25760</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>94</v>
+        <v>262</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>265</v>
+        <v>161</v>
       </c>
       <c r="H39" s="7">
         <v>64</v>
@@ -3390,13 +3369,13 @@
         <v>44495</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="M39" s="7">
         <v>92</v>
@@ -3405,13 +3384,13 @@
         <v>70255</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>271</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,13 +3405,13 @@
         <v>98200</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="H40" s="7">
         <v>194</v>
@@ -3441,13 +3420,13 @@
         <v>144350</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="M40" s="7">
         <v>297</v>
@@ -3456,13 +3435,13 @@
         <v>242550</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3456,13 @@
         <v>420817</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H41" s="7">
         <v>587</v>
@@ -3492,13 +3471,13 @@
         <v>481366</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="M41" s="7">
         <v>1011</v>
@@ -3507,13 +3486,13 @@
         <v>902183</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3507,13 @@
         <v>314652</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H42" s="7">
         <v>217</v>
@@ -3543,13 +3522,13 @@
         <v>198224</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>293</v>
+        <v>109</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="M42" s="7">
         <v>424</v>
@@ -3558,13 +3537,13 @@
         <v>512875</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3632,13 +3611,13 @@
         <v>75259</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H44" s="7">
         <v>174</v>
@@ -3647,13 +3626,13 @@
         <v>110739</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="M44" s="7">
         <v>258</v>
@@ -3662,13 +3641,13 @@
         <v>185998</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>94</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3662,13 @@
         <v>194831</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>308</v>
+        <v>130</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>309</v>
+        <v>203</v>
       </c>
       <c r="H45" s="7">
         <v>476</v>
@@ -3698,13 +3677,13 @@
         <v>315068</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="M45" s="7">
         <v>699</v>
@@ -3713,13 +3692,13 @@
         <v>509899</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3734,13 +3713,13 @@
         <v>1018225</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="H46" s="7">
         <v>1934</v>
@@ -3749,28 +3728,28 @@
         <v>1422328</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M46" s="7">
         <v>3022</v>
       </c>
       <c r="N46" s="7">
-        <v>2440553</v>
+        <v>2440554</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3785,13 +3764,13 @@
         <v>2087559</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="H47" s="7">
         <v>2762</v>
@@ -3800,13 +3779,13 @@
         <v>1948495</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="M47" s="7">
         <v>4734</v>
@@ -3815,13 +3794,13 @@
         <v>4036054</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3863,7 +3842,7 @@
         <v>8713</v>
       </c>
       <c r="N48" s="7">
-        <v>7172504</v>
+        <v>7172505</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>46</v>
@@ -3877,7 +3856,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P57B1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P57B1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{731265C3-564A-4B2A-ADC5-E458CACDB833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D4F0AF3-0962-4B17-8925-E4C3882A8C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26C8771E-F78A-495B-948D-88D0D822D7C3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3A9EED62-2264-4FBF-BEE2-03566DCB20E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="329">
   <si>
     <t>Población según se ha sentido deprimido en 2023 (Tasa respuesta: 99,66%)</t>
   </si>
@@ -89,934 +89,937 @@
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>En algún momento</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>En ningún momento o en casi ningún momento</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>En algún momento</t>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>82,78%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>71,16%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>67,34%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>44,28%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>33,91%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>51,95%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>63,15%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>38,55%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>En ningún momento o en casi ningún momento</t>
-  </si>
-  <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
   </si>
   <si>
     <t>2,53%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>60,9%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>68,31%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>74,9%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
-  </si>
-  <si>
-    <t>58,42%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>38,48%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>45,23%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>55,43%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>52,21%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>55,18%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>56,27%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>51,89%</t>
+  </si>
+  <si>
+    <t>41,29%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>62,55%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1431,7 +1434,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E1DF04E-F298-4942-AF06-AB762F90151B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAC6CF3F-02C7-407D-8A32-E10C727A02E8}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1603,7 +1606,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>3024</v>
+        <v>3535</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
@@ -1618,7 +1621,7 @@
         <v>12</v>
       </c>
       <c r="I5" s="7">
-        <v>5472</v>
+        <v>5686</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>20</v>
@@ -1633,7 +1636,7 @@
         <v>15</v>
       </c>
       <c r="N5" s="7">
-        <v>8496</v>
+        <v>9221</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>23</v>
@@ -1654,7 +1657,7 @@
         <v>60</v>
       </c>
       <c r="D6" s="7">
-        <v>46338</v>
+        <v>53121</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>27</v>
@@ -1669,7 +1672,7 @@
         <v>101</v>
       </c>
       <c r="I6" s="7">
-        <v>49564</v>
+        <v>53929</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1684,7 +1687,7 @@
         <v>161</v>
       </c>
       <c r="N6" s="7">
-        <v>95902</v>
+        <v>107051</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>33</v>
@@ -1705,7 +1708,7 @@
         <v>268</v>
       </c>
       <c r="D7" s="7">
-        <v>210937</v>
+        <v>254787</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>37</v>
@@ -1720,7 +1723,7 @@
         <v>425</v>
       </c>
       <c r="I7" s="7">
-        <v>216367</v>
+        <v>230019</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1735,7 +1738,7 @@
         <v>693</v>
       </c>
       <c r="N7" s="7">
-        <v>427303</v>
+        <v>484805</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>43</v>
@@ -1756,7 +1759,7 @@
         <v>331</v>
       </c>
       <c r="D8" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>46</v>
@@ -1771,7 +1774,7 @@
         <v>538</v>
       </c>
       <c r="I8" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>46</v>
@@ -1786,7 +1789,7 @@
         <v>869</v>
       </c>
       <c r="N8" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>46</v>
@@ -1809,7 +1812,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="7">
-        <v>9506</v>
+        <v>9200</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>48</v>
@@ -1824,7 +1827,7 @@
         <v>11</v>
       </c>
       <c r="I9" s="7">
-        <v>8153</v>
+        <v>7523</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>51</v>
@@ -1839,7 +1842,7 @@
         <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>17660</v>
+        <v>16723</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>54</v>
@@ -1860,7 +1863,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>9002</v>
+        <v>8536</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>57</v>
@@ -1875,31 +1878,31 @@
         <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>19502</v>
+        <v>18013</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>28505</v>
+        <v>26549</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,46 +1914,46 @@
         <v>99</v>
       </c>
       <c r="D11" s="7">
-        <v>136310</v>
+        <v>135156</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H11" s="7">
         <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>166988</v>
+        <v>155716</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M11" s="7">
         <v>329</v>
       </c>
       <c r="N11" s="7">
-        <v>303298</v>
+        <v>290872</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1962,46 +1965,46 @@
         <v>265</v>
       </c>
       <c r="D12" s="7">
-        <v>362156</v>
+        <v>363293</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H12" s="7">
         <v>445</v>
       </c>
       <c r="I12" s="7">
-        <v>357034</v>
+        <v>331304</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M12" s="7">
         <v>710</v>
       </c>
       <c r="N12" s="7">
-        <v>719190</v>
+        <v>694597</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,7 +2016,7 @@
         <v>380</v>
       </c>
       <c r="D13" s="7">
-        <v>516974</v>
+        <v>516184</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>46</v>
@@ -2028,7 +2031,7 @@
         <v>714</v>
       </c>
       <c r="I13" s="7">
-        <v>551678</v>
+        <v>512557</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>46</v>
@@ -2043,7 +2046,7 @@
         <v>1094</v>
       </c>
       <c r="N13" s="7">
-        <v>1068652</v>
+        <v>1028741</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>46</v>
@@ -2057,7 +2060,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2066,22 +2069,22 @@
         <v>8</v>
       </c>
       <c r="D14" s="7">
-        <v>6047</v>
+        <v>5813</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>22</v>
       </c>
       <c r="I14" s="7">
-        <v>12753</v>
+        <v>11811</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>87</v>
@@ -2096,13 +2099,13 @@
         <v>30</v>
       </c>
       <c r="N14" s="7">
-        <v>18800</v>
+        <v>17625</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>91</v>
@@ -2117,7 +2120,7 @@
         <v>20</v>
       </c>
       <c r="D15" s="7">
-        <v>15745</v>
+        <v>15131</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>92</v>
@@ -2132,7 +2135,7 @@
         <v>50</v>
       </c>
       <c r="I15" s="7">
-        <v>29422</v>
+        <v>27306</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>95</v>
@@ -2147,7 +2150,7 @@
         <v>70</v>
       </c>
       <c r="N15" s="7">
-        <v>45166</v>
+        <v>42436</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>98</v>
@@ -2168,7 +2171,7 @@
         <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>46948</v>
+        <v>45400</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>101</v>
@@ -2183,7 +2186,7 @@
         <v>138</v>
       </c>
       <c r="I16" s="7">
-        <v>91677</v>
+        <v>85400</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>104</v>
@@ -2198,7 +2201,7 @@
         <v>200</v>
       </c>
       <c r="N16" s="7">
-        <v>138626</v>
+        <v>130800</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>107</v>
@@ -2219,7 +2222,7 @@
         <v>268</v>
       </c>
       <c r="D17" s="7">
-        <v>251427</v>
+        <v>247685</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>110</v>
@@ -2234,7 +2237,7 @@
         <v>324</v>
       </c>
       <c r="I17" s="7">
-        <v>237992</v>
+        <v>223273</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>113</v>
@@ -2249,7 +2252,7 @@
         <v>592</v>
       </c>
       <c r="N17" s="7">
-        <v>489420</v>
+        <v>470958</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>116</v>
@@ -2270,7 +2273,7 @@
         <v>358</v>
       </c>
       <c r="D18" s="7">
-        <v>320168</v>
+        <v>314029</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>46</v>
@@ -2285,7 +2288,7 @@
         <v>534</v>
       </c>
       <c r="I18" s="7">
-        <v>371844</v>
+        <v>347790</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>46</v>
@@ -2300,7 +2303,7 @@
         <v>892</v>
       </c>
       <c r="N18" s="7">
-        <v>692012</v>
+        <v>661819</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>46</v>
@@ -2323,46 +2326,46 @@
         <v>6</v>
       </c>
       <c r="D19" s="7">
-        <v>6417</v>
+        <v>5957</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>19</v>
       </c>
       <c r="I19" s="7">
-        <v>13481</v>
+        <v>12310</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>25</v>
       </c>
       <c r="N19" s="7">
-        <v>19898</v>
+        <v>18267</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,46 +2377,46 @@
         <v>10</v>
       </c>
       <c r="D20" s="7">
-        <v>8167</v>
+        <v>7919</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
         <v>45</v>
       </c>
       <c r="I20" s="7">
-        <v>28146</v>
+        <v>26160</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
         <v>55</v>
       </c>
       <c r="N20" s="7">
-        <v>36313</v>
+        <v>34079</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,46 +2428,46 @@
         <v>67</v>
       </c>
       <c r="D21" s="7">
-        <v>67635</v>
+        <v>65079</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H21" s="7">
         <v>148</v>
       </c>
       <c r="I21" s="7">
-        <v>89730</v>
+        <v>83518</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>215</v>
       </c>
       <c r="N21" s="7">
-        <v>157365</v>
+        <v>148597</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,46 +2479,46 @@
         <v>205</v>
       </c>
       <c r="D22" s="7">
-        <v>235875</v>
+        <v>229838</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H22" s="7">
         <v>379</v>
       </c>
       <c r="I22" s="7">
-        <v>293153</v>
+        <v>349929</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M22" s="7">
         <v>584</v>
       </c>
       <c r="N22" s="7">
-        <v>529028</v>
+        <v>579766</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>154</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,7 +2530,7 @@
         <v>288</v>
       </c>
       <c r="D23" s="7">
-        <v>318093</v>
+        <v>308792</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>46</v>
@@ -2542,7 +2545,7 @@
         <v>591</v>
       </c>
       <c r="I23" s="7">
-        <v>424510</v>
+        <v>471917</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>46</v>
@@ -2557,7 +2560,7 @@
         <v>879</v>
       </c>
       <c r="N23" s="7">
-        <v>742604</v>
+        <v>780709</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>46</v>
@@ -2580,7 +2583,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="7">
-        <v>5990</v>
+        <v>5396</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>156</v>
@@ -2595,31 +2598,31 @@
         <v>13</v>
       </c>
       <c r="I24" s="7">
-        <v>5881</v>
+        <v>5334</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>159</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M24" s="7">
         <v>22</v>
       </c>
       <c r="N24" s="7">
-        <v>11871</v>
+        <v>10730</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2631,43 +2634,43 @@
         <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>8810</v>
+        <v>7956</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
       </c>
       <c r="I25" s="7">
-        <v>11591</v>
+        <v>10535</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>41</v>
       </c>
       <c r="N25" s="7">
-        <v>20400</v>
+        <v>18491</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>171</v>
@@ -2682,7 +2685,7 @@
         <v>141</v>
       </c>
       <c r="D26" s="7">
-        <v>94791</v>
+        <v>86251</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>172</v>
@@ -2697,7 +2700,7 @@
         <v>271</v>
       </c>
       <c r="I26" s="7">
-        <v>124707</v>
+        <v>112505</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>175</v>
@@ -2712,7 +2715,7 @@
         <v>412</v>
       </c>
       <c r="N26" s="7">
-        <v>219497</v>
+        <v>198755</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>178</v>
@@ -2733,7 +2736,7 @@
         <v>116</v>
       </c>
       <c r="D27" s="7">
-        <v>87157</v>
+        <v>79139</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>181</v>
@@ -2748,7 +2751,7 @@
         <v>178</v>
       </c>
       <c r="I27" s="7">
-        <v>88931</v>
+        <v>79550</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>184</v>
@@ -2763,7 +2766,7 @@
         <v>294</v>
       </c>
       <c r="N27" s="7">
-        <v>176088</v>
+        <v>158690</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>187</v>
@@ -2784,7 +2787,7 @@
         <v>279</v>
       </c>
       <c r="D28" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>46</v>
@@ -2799,7 +2802,7 @@
         <v>490</v>
       </c>
       <c r="I28" s="7">
-        <v>231109</v>
+        <v>207924</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>46</v>
@@ -2814,7 +2817,7 @@
         <v>769</v>
       </c>
       <c r="N28" s="7">
-        <v>427856</v>
+        <v>386666</v>
       </c>
       <c r="O28" s="7" t="s">
         <v>46</v>
@@ -2837,7 +2840,7 @@
         <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>9398</v>
+        <v>8948</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>191</v>
@@ -2852,7 +2855,7 @@
         <v>17</v>
       </c>
       <c r="I29" s="7">
-        <v>8020</v>
+        <v>7433</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>194</v>
@@ -2861,22 +2864,22 @@
         <v>195</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="M29" s="7">
         <v>31</v>
       </c>
       <c r="N29" s="7">
-        <v>17419</v>
+        <v>16380</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2888,46 +2891,46 @@
         <v>29</v>
       </c>
       <c r="D30" s="7">
-        <v>17098</v>
+        <v>16363</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
         <v>51</v>
       </c>
       <c r="I30" s="7">
-        <v>24256</v>
+        <v>22561</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
         <v>80</v>
       </c>
       <c r="N30" s="7">
-        <v>41354</v>
+        <v>38924</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,46 +2942,46 @@
         <v>75</v>
       </c>
       <c r="D31" s="7">
-        <v>46241</v>
+        <v>44795</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H31" s="7">
         <v>109</v>
       </c>
       <c r="I31" s="7">
-        <v>54166</v>
+        <v>50721</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M31" s="7">
         <v>184</v>
       </c>
       <c r="N31" s="7">
-        <v>100407</v>
+        <v>95516</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,46 +2993,46 @@
         <v>252</v>
       </c>
       <c r="D32" s="7">
-        <v>203675</v>
+        <v>198763</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H32" s="7">
         <v>283</v>
       </c>
       <c r="I32" s="7">
-        <v>189180</v>
+        <v>176341</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M32" s="7">
         <v>535</v>
       </c>
       <c r="N32" s="7">
-        <v>392855</v>
+        <v>375103</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3041,7 +3044,7 @@
         <v>370</v>
       </c>
       <c r="D33" s="7">
-        <v>276412</v>
+        <v>268869</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>46</v>
@@ -3056,7 +3059,7 @@
         <v>460</v>
       </c>
       <c r="I33" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J33" s="7" t="s">
         <v>46</v>
@@ -3071,7 +3074,7 @@
         <v>830</v>
       </c>
       <c r="N33" s="7">
-        <v>552034</v>
+        <v>525924</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>46</v>
@@ -3085,7 +3088,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -3094,46 +3097,46 @@
         <v>11</v>
       </c>
       <c r="D34" s="7">
-        <v>12140</v>
+        <v>11810</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H34" s="7">
         <v>28</v>
       </c>
       <c r="I34" s="7">
-        <v>17956</v>
+        <v>16559</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M34" s="7">
         <v>39</v>
       </c>
       <c r="N34" s="7">
-        <v>30096</v>
+        <v>28369</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>233</v>
+        <v>120</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>157</v>
+        <v>234</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3145,28 +3148,28 @@
         <v>37</v>
       </c>
       <c r="D35" s="7">
-        <v>34787</v>
+        <v>34003</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="H35" s="7">
         <v>68</v>
       </c>
       <c r="I35" s="7">
-        <v>52329</v>
+        <v>48413</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>239</v>
+        <v>56</v>
       </c>
       <c r="L35" s="7" t="s">
         <v>240</v>
@@ -3175,16 +3178,16 @@
         <v>105</v>
       </c>
       <c r="N35" s="7">
-        <v>87115</v>
+        <v>82416</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>241</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>127</v>
+        <v>242</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3196,46 +3199,46 @@
         <v>160</v>
       </c>
       <c r="D36" s="7">
-        <v>159146</v>
+        <v>155299</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H36" s="7">
         <v>350</v>
       </c>
       <c r="I36" s="7">
-        <v>364131</v>
+        <v>440186</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M36" s="7">
         <v>510</v>
       </c>
       <c r="N36" s="7">
-        <v>523277</v>
+        <v>595485</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,46 +3250,46 @@
         <v>391</v>
       </c>
       <c r="D37" s="7">
-        <v>421681</v>
+        <v>423168</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H37" s="7">
         <v>511</v>
       </c>
       <c r="I37" s="7">
-        <v>367615</v>
+        <v>342090</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M37" s="7">
         <v>902</v>
       </c>
       <c r="N37" s="7">
-        <v>789296</v>
+        <v>765258</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3298,7 +3301,7 @@
         <v>599</v>
       </c>
       <c r="D38" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>46</v>
@@ -3313,7 +3316,7 @@
         <v>957</v>
       </c>
       <c r="I38" s="7">
-        <v>802030</v>
+        <v>847249</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>46</v>
@@ -3328,7 +3331,7 @@
         <v>1556</v>
       </c>
       <c r="N38" s="7">
-        <v>1429784</v>
+        <v>1471528</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>46</v>
@@ -3342,7 +3345,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -3351,46 +3354,46 @@
         <v>28</v>
       </c>
       <c r="D39" s="7">
-        <v>25760</v>
+        <v>21663</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>161</v>
+        <v>265</v>
       </c>
       <c r="H39" s="7">
         <v>64</v>
       </c>
       <c r="I39" s="7">
-        <v>44495</v>
+        <v>37638</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M39" s="7">
         <v>92</v>
       </c>
       <c r="N39" s="7">
-        <v>70255</v>
+        <v>59301</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3402,46 +3405,46 @@
         <v>103</v>
       </c>
       <c r="D40" s="7">
-        <v>98200</v>
+        <v>83897</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H40" s="7">
         <v>194</v>
       </c>
       <c r="I40" s="7">
-        <v>144350</v>
+        <v>120052</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M40" s="7">
         <v>297</v>
       </c>
       <c r="N40" s="7">
-        <v>242550</v>
+        <v>203949</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3453,46 +3456,46 @@
         <v>424</v>
       </c>
       <c r="D41" s="7">
-        <v>420817</v>
+        <v>358001</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H41" s="7">
         <v>587</v>
       </c>
       <c r="I41" s="7">
-        <v>481366</v>
+        <v>397611</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>282</v>
+        <v>177</v>
       </c>
       <c r="M41" s="7">
         <v>1011</v>
       </c>
       <c r="N41" s="7">
-        <v>902183</v>
+        <v>755612</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -3504,46 +3507,46 @@
         <v>207</v>
       </c>
       <c r="D42" s="7">
-        <v>314652</v>
+        <v>465160</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="H42" s="7">
         <v>217</v>
       </c>
       <c r="I42" s="7">
-        <v>198224</v>
+        <v>162430</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M42" s="7">
         <v>424</v>
       </c>
       <c r="N42" s="7">
-        <v>512875</v>
+        <v>627590</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -3555,7 +3558,7 @@
         <v>762</v>
       </c>
       <c r="D43" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>46</v>
@@ -3570,7 +3573,7 @@
         <v>1062</v>
       </c>
       <c r="I43" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J43" s="7" t="s">
         <v>46</v>
@@ -3585,7 +3588,7 @@
         <v>1824</v>
       </c>
       <c r="N43" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O43" s="7" t="s">
         <v>46</v>
@@ -3608,46 +3611,46 @@
         <v>84</v>
       </c>
       <c r="D44" s="7">
-        <v>75259</v>
+        <v>68786</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>174</v>
       </c>
       <c r="I44" s="7">
-        <v>110739</v>
+        <v>98610</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>299</v>
+        <v>59</v>
       </c>
       <c r="M44" s="7">
         <v>258</v>
       </c>
       <c r="N44" s="7">
-        <v>185998</v>
+        <v>167395</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,46 +3662,46 @@
         <v>223</v>
       </c>
       <c r="D45" s="7">
-        <v>194831</v>
+        <v>177339</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>302</v>
+        <v>89</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>130</v>
+        <v>304</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="H45" s="7">
         <v>476</v>
       </c>
       <c r="I45" s="7">
-        <v>315068</v>
+        <v>278726</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>304</v>
+        <v>200</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M45" s="7">
         <v>699</v>
       </c>
       <c r="N45" s="7">
-        <v>509899</v>
+        <v>456065</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3710,46 +3713,46 @@
         <v>1088</v>
       </c>
       <c r="D46" s="7">
-        <v>1018225</v>
+        <v>943101</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H46" s="7">
         <v>1934</v>
       </c>
       <c r="I46" s="7">
-        <v>1422328</v>
+        <v>1379587</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M46" s="7">
         <v>3022</v>
       </c>
       <c r="N46" s="7">
-        <v>2440554</v>
+        <v>2322688</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -3761,46 +3764,46 @@
         <v>1972</v>
       </c>
       <c r="D47" s="7">
-        <v>2087559</v>
+        <v>2261832</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H47" s="7">
         <v>2762</v>
       </c>
       <c r="I47" s="7">
-        <v>1948495</v>
+        <v>1894936</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M47" s="7">
         <v>4734</v>
       </c>
       <c r="N47" s="7">
-        <v>4036054</v>
+        <v>4156768</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3815,7 @@
         <v>3367</v>
       </c>
       <c r="D48" s="7">
-        <v>3375875</v>
+        <v>3451058</v>
       </c>
       <c r="E48" s="7" t="s">
         <v>46</v>
@@ -3827,7 +3830,7 @@
         <v>5346</v>
       </c>
       <c r="I48" s="7">
-        <v>3796630</v>
+        <v>3651858</v>
       </c>
       <c r="J48" s="7" t="s">
         <v>46</v>
@@ -3842,7 +3845,7 @@
         <v>8713</v>
       </c>
       <c r="N48" s="7">
-        <v>7172505</v>
+        <v>7102916</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>46</v>
@@ -3856,7 +3859,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
